--- a/FinPom2.xlsx
+++ b/FinPom2.xlsx
@@ -1,35 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="516" yWindow="516" windowWidth="15996" windowHeight="7356"/>
   </bookViews>
   <sheets>
-    <sheet name="reg" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="reg" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>НАЛИЧНЫЕ</t>
+  </si>
+  <si>
+    <t>БЕЗНАЛ</t>
+  </si>
+  <si>
+    <t>РАСХОДЫ НАЛИЧНЫЕ</t>
+  </si>
+  <si>
+    <t>РАСХОДЫ БЕЗНАЛ</t>
+  </si>
+  <si>
+    <t>ДОХОДЫ НАЛИЧНЫЕ</t>
+  </si>
+  <si>
+    <t>ДОХОДЫ БЕЗНАЛ</t>
+  </si>
+  <si>
+    <t>БЮДЖЕТ</t>
+  </si>
+  <si>
+    <t>РАСХОДЫ ВСЕГО</t>
+  </si>
+  <si>
+    <t>ДОХОДЫ ВСЕГО</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,80 +81,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,59 +380,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ВСЕГО</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>НАЛИЧНЫЕ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>БЕЗНАЛ</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>РАСХОДЫ НАЛИЧНЫЕ</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>РАСХОДЫ БЕЗНАЛ</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>ДОХОДЫ НАЛИЧНЫЕ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ДОХОДЫ БЕЗНАЛ</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -470,18 +437,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FinPom2.xlsx
+++ b/FinPom2.xlsx
@@ -1,68 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="516" windowWidth="15996" windowHeight="7356"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="516" yWindow="516" windowWidth="15996" windowHeight="7356" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="reg" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="reg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>НАЛИЧНЫЕ</t>
-  </si>
-  <si>
-    <t>БЕЗНАЛ</t>
-  </si>
-  <si>
-    <t>РАСХОДЫ НАЛИЧНЫЕ</t>
-  </si>
-  <si>
-    <t>РАСХОДЫ БЕЗНАЛ</t>
-  </si>
-  <si>
-    <t>ДОХОДЫ НАЛИЧНЫЕ</t>
-  </si>
-  <si>
-    <t>ДОХОДЫ БЕЗНАЛ</t>
-  </si>
-  <si>
-    <t>БЮДЖЕТ</t>
-  </si>
-  <si>
-    <t>РАСХОДЫ ВСЕГО</t>
-  </si>
-  <si>
-    <t>ДОХОДЫ ВСЕГО</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,18 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -380,55 +408,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col width="8.44140625" customWidth="1" min="1" max="1"/>
+    <col width="8.6640625" customWidth="1" min="4" max="4"/>
+    <col width="15.33203125" customWidth="1" min="5" max="5"/>
+    <col width="20.109375" customWidth="1" min="6" max="6"/>
+    <col width="17.109375" customWidth="1" min="7" max="7"/>
+    <col width="14.88671875" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="17.6640625" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>БЮДЖЕТ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>НАЛИЧНЫЕ</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>БЕЗНАЛ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>РАСХОДЫ ВСЕГО</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>РАСХОДЫ НАЛИЧНЫЕ</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>РАСХОДЫ БЕЗНАЛ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ДОХОДЫ ВСЕГО</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ДОХОДЫ НАЛИЧНЫЕ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ДОХОДЫ БЕЗНАЛ</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -437,13 +489,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="13.21875" customWidth="1" min="4" max="4"/>
+    <col width="14.6640625" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/FinPom2.xlsx
+++ b/FinPom2.xlsx
@@ -1,34 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="516" yWindow="516" windowWidth="15996" windowHeight="7356" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="516" yWindow="516" windowWidth="15996" windowHeight="7356"/>
   </bookViews>
   <sheets>
-    <sheet name="reg" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="reg" sheetId="1" r:id="rId1"/>
+    <sheet name="603819595" sheetId="4" r:id="rId2"/>
+    <sheet name="848273021" sheetId="5" r:id="rId3"/>
+    <sheet name="592344700" sheetId="6" r:id="rId4"/>
+    <sheet name="942530926" sheetId="7" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>БЮДЖЕТ</t>
+  </si>
+  <si>
+    <t>НАЛИЧНЫЕ</t>
+  </si>
+  <si>
+    <t>БЕЗНАЛ</t>
+  </si>
+  <si>
+    <t>РАСХОДЫ ВСЕГО</t>
+  </si>
+  <si>
+    <t>РАСХОДЫ НАЛИЧНЫЕ</t>
+  </si>
+  <si>
+    <t>РАСХОДЫ БЕЗНАЛ</t>
+  </si>
+  <si>
+    <t>ДОХОДЫ ВСЕГО</t>
+  </si>
+  <si>
+    <t>ДОХОДЫ НАЛИЧНЫЕ</t>
+  </si>
+  <si>
+    <t>ДОХОДЫ БЕЗНАЛ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +81,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,79 +380,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="8.44140625" customWidth="1" min="1" max="1"/>
-    <col width="8.6640625" customWidth="1" min="4" max="4"/>
-    <col width="15.33203125" customWidth="1" min="5" max="5"/>
-    <col width="20.109375" customWidth="1" min="6" max="6"/>
-    <col width="17.109375" customWidth="1" min="7" max="7"/>
-    <col width="14.88671875" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="17.6640625" customWidth="1" min="10" max="10"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>БЮДЖЕТ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>НАЛИЧНЫЕ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>БЕЗНАЛ</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>РАСХОДЫ ВСЕГО</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>РАСХОДЫ НАЛИЧНЫЕ</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>РАСХОДЫ БЕЗНАЛ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ДОХОДЫ ВСЕГО</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ДОХОДЫ НАЛИЧНЫЕ</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>ДОХОДЫ БЕЗНАЛ</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -489,38 +434,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="13.21875" customWidth="1" min="4" max="4"/>
-    <col width="14.6640625" customWidth="1" min="5" max="5"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Сумма</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>561211</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>233</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>5558989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>15000000000</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
